--- a/tests/examples/DF_check.xlsx
+++ b/tests/examples/DF_check.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,21 +531,6 @@
           <t>FUv</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ØMn.inf</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ØMn.sup</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ØVn</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -620,9 +605,6 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -663,9 +645,15 @@
       <c r="L3" t="n">
         <v>1.5</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" t="n">
+        <v>80</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
       <c r="P3" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -674,15 +662,6 @@
       </c>
       <c r="R3" s="3" t="n">
         <v>1.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>100</v>
-      </c>
-      <c r="T3" t="n">
-        <v>80</v>
-      </c>
-      <c r="U3" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -724,9 +703,15 @@
       <c r="L4" t="n">
         <v>1.5</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10</v>
+      </c>
       <c r="P4" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -735,15 +720,6 @@
       </c>
       <c r="R4" s="3" t="n">
         <v>1.3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>100</v>
-      </c>
-      <c r="T4" t="n">
-        <v>80</v>
-      </c>
-      <c r="U4" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -785,9 +761,15 @@
       <c r="L5" t="n">
         <v>1.5</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="n">
+        <v>80</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10</v>
+      </c>
       <c r="P5" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -796,15 +778,6 @@
       </c>
       <c r="R5" s="4" t="n">
         <v>0.96</v>
-      </c>
-      <c r="S5" t="n">
-        <v>100</v>
-      </c>
-      <c r="T5" t="n">
-        <v>80</v>
-      </c>
-      <c r="U5" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -846,9 +819,15 @@
       <c r="L6" t="n">
         <v>1.5</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" t="n">
+        <v>80</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
       <c r="P6" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -857,15 +836,6 @@
       </c>
       <c r="R6" s="2" t="n">
         <v>0.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>100</v>
-      </c>
-      <c r="T6" t="n">
-        <v>80</v>
-      </c>
-      <c r="U6" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
